--- a/cypress/fixtures/expectedResults/TEST FILE.xlsx
+++ b/cypress/fixtures/expectedResults/TEST FILE.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andreis/MyOwnProject/api-test-cypress/cypress/fixtures/expectedResults/IM/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andreis/MyOwnProject/api-test-cypress/cypress/fixtures/expectedResults/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DE9D473-7F01-C24A-8C06-56DD9C504025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C5BF394-B162-F741-8C59-2A361A59E8AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8040" yWindow="-24820" windowWidth="32520" windowHeight="17100" xr2:uid="{AF8E3BFC-DC2E-2F47-BD7F-0D123F0E476D}"/>
   </bookViews>
@@ -749,8 +749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E513FE4-4628-4129-95C3-9A1F00368D84}">
   <dimension ref="A1:Q122"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
